--- a/spec/support/data/valid_sample_import_activity_executions.xlsx
+++ b/spec/support/data/valid_sample_import_activity_executions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sihu/p/bula/mova21-orca/spec/support/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8D43D0-63FB-AB4F-8489-CCD8A4EEFD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D94875-EC0E-5442-909F-E387BA06AE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3000" windowWidth="28040" windowHeight="17440" xr2:uid="{751C7588-BA65-2943-84B1-AD9DF869C175}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,5 +523,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>